--- a/SistemaIntegradoV1.0/bin/Debug/Arquivos/IntegradoMaterias.xlsx
+++ b/SistemaIntegradoV1.0/bin/Debug/Arquivos/IntegradoMaterias.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Matérias Primas" sheetId="1" r:id="R7662c23814564914"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Matérias Primas" sheetId="1" r:id="Raeef907891fc4ca8"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/SistemaIntegradoV1.0/bin/Debug/Arquivos/IntegradoMaterias.xlsx
+++ b/SistemaIntegradoV1.0/bin/Debug/Arquivos/IntegradoMaterias.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Matérias Primas" sheetId="1" r:id="Raeef907891fc4ca8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Matérias Primas" sheetId="1" r:id="R818362a3797c4a0f"/>
   </x:sheets>
 </x:workbook>
 </file>
